--- a/doc/Objetivos.xlsx
+++ b/doc/Objetivos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TFG-TriTruth\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CADD58-2228-4C36-8FCB-CDEB598006D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8DA455-A414-4238-A837-2F898B2EDA15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4F883628-C1E6-49E1-B96D-E081C291A84B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4F883628-C1E6-49E1-B96D-E081C291A84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
     <t>Tipo</t>
   </si>
@@ -239,12 +239,6 @@
     <t>Configuración de dispositivos</t>
   </si>
   <si>
-    <t>Configuración automática de dispositivos</t>
-  </si>
-  <si>
-    <t>La organización dispondrá de alguna herramienta para configurar los dispositivos de los participantes de manera inhalámbrica y general partiendo de una hoja de configuración de carrera</t>
-  </si>
-  <si>
     <t>#19</t>
   </si>
   <si>
@@ -288,6 +282,36 @@
   </si>
   <si>
     <t>El detector pordrá interpretar en que sentido se circula en caso de pasar más de una vez por un área restringida</t>
+  </si>
+  <si>
+    <t>Limitación de direcciones MAC en router</t>
+  </si>
+  <si>
+    <t>Ejecutable en aplicación organización</t>
+  </si>
+  <si>
+    <t>La organización dispondrá de alguna herramienta para configurar los dispositivos de los participantes.</t>
+  </si>
+  <si>
+    <t>Configurable por hoja de coordenadas</t>
+  </si>
+  <si>
+    <t>Configuración intuitiva de dispositivos</t>
+  </si>
+  <si>
+    <t>Uso de la pantalla en prototipo</t>
+  </si>
+  <si>
+    <t>Tiempo máximo de adelantamiento configurado.</t>
+  </si>
+  <si>
+    <t>Hoja de Excel</t>
+  </si>
+  <si>
+    <t>Lanzar mosquitto</t>
+  </si>
+  <si>
+    <t>El sensor óptico no detecta este tipo de situaciones</t>
   </si>
 </sst>
 </file>
@@ -407,6 +431,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,9 +441,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -739,39 +763,39 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="52.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="12.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="53.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="4.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="82.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1"/>
+    <col min="6" max="6" width="12.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="43" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="16"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -795,7 +819,7 @@
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -815,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -835,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -855,7 +879,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -875,7 +899,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -895,7 +919,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -915,7 +939,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -935,7 +959,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -955,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -975,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -994,8 +1018,11 @@
       <c r="F12" s="10">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1015,7 +1042,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -1035,7 +1062,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
@@ -1054,8 +1081,11 @@
       <c r="F15" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
@@ -1074,8 +1104,11 @@
       <c r="F16" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
@@ -1092,10 +1125,13 @@
         <v>56</v>
       </c>
       <c r="F17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -1114,8 +1150,11 @@
       <c r="F18" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>62</v>
       </c>
@@ -1134,8 +1173,11 @@
       <c r="F19" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>66</v>
       </c>
@@ -1143,10 +1185,10 @@
         <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>55</v>
@@ -1155,58 +1197,64 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>55</v>
@@ -1215,38 +1263,41 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F24" s="10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>56</v>

--- a/doc/Objetivos.xlsx
+++ b/doc/Objetivos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TFG-TriTruth\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8DA455-A414-4238-A837-2F898B2EDA15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7ACA8F-2E81-47B5-A609-5CD6D44BA0E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4F883628-C1E6-49E1-B96D-E081C291A84B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4F883628-C1E6-49E1-B96D-E081C291A84B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="103">
   <si>
     <t>Tipo</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Comprobación</t>
   </si>
   <si>
-    <t>Coprobación</t>
-  </si>
-  <si>
     <t>Detector</t>
   </si>
   <si>
@@ -104,15 +101,9 @@
     <t>Reconocer, en caso de estar incumpliendo la distancia de drafting, el valor en metros de esta sanción.</t>
   </si>
   <si>
-    <t>Comunicar con la aplicación de la organización de manera inalámbrica para informar sobre si ha incumplido.</t>
-  </si>
-  <si>
     <t>Informar al deportista acerca de cuando está incumpliendo la distancia de drafting</t>
   </si>
   <si>
-    <t>Informar a la organización sobre si ha incumplido durante el desarrollo del sector ciclista</t>
-  </si>
-  <si>
     <t>El peso del conjunto el dispositivo no superará los 300g</t>
   </si>
   <si>
@@ -122,9 +113,6 @@
     <t>Aerodinámica</t>
   </si>
   <si>
-    <t>El conjunto del dispositivo debe integrarse en una bicleta tipo contrarreloj de manera que su impacto aerodinámico sea leve</t>
-  </si>
-  <si>
     <t>#7</t>
   </si>
   <si>
@@ -149,27 +137,18 @@
     <t>#9</t>
   </si>
   <si>
-    <t>La organización tendra la posibilidad de configurar el dispositivo de forma que no sea neceario tocar código fuente</t>
-  </si>
-  <si>
     <t>#10</t>
   </si>
   <si>
     <t>Detección drafting viento lateral</t>
   </si>
   <si>
-    <t>Reconocer cuando se está realizando drafting bajo condiciones de viento lateral con un posicionamineto tipo abanicos.</t>
-  </si>
-  <si>
     <t>#11</t>
   </si>
   <si>
     <t>Batería</t>
   </si>
   <si>
-    <t>La duración de la batería del dispositivo será como mínimo de 6h, que corresponde a realizar los 180km de ciclismo a 30km/h.</t>
-  </si>
-  <si>
     <t>#12</t>
   </si>
   <si>
@@ -185,9 +164,6 @@
     <t>Configuración servidor</t>
   </si>
   <si>
-    <t xml:space="preserve">La configuración del servidor para su uso no requerirá de conocimientos informáticos específicos por parte de la organización. </t>
-  </si>
-  <si>
     <t>#14</t>
   </si>
   <si>
@@ -212,9 +188,6 @@
     <t>Detección de adelantamientos</t>
   </si>
   <si>
-    <t>Reconocer cuando el deportista está realizando un adelantamiento y no está incumpliendo la norma de drafting</t>
-  </si>
-  <si>
     <t>#16</t>
   </si>
   <si>
@@ -227,9 +200,6 @@
     <t>Zona transición</t>
   </si>
   <si>
-    <t>No se debe detectar como falsos positivo el tiempo que la bicicleta se encuentra parada en el área de transición</t>
-  </si>
-  <si>
     <t>Reconocer las zonas en las que el drafting esté permitido en el rocorrido y no sancionar por ello.</t>
   </si>
   <si>
@@ -254,9 +224,6 @@
     <t>Seguridad</t>
   </si>
   <si>
-    <t>Existirá un método de seguridad para evitar que un usuario externo suplante a alguna de las partes de proyecto en cuanto a la mensajería</t>
-  </si>
-  <si>
     <t>#21</t>
   </si>
   <si>
@@ -281,9 +248,6 @@
     <t>Cambio de sentido</t>
   </si>
   <si>
-    <t>El detector pordrá interpretar en que sentido se circula en caso de pasar más de una vez por un área restringida</t>
-  </si>
-  <si>
     <t>Limitación de direcciones MAC en router</t>
   </si>
   <si>
@@ -296,9 +260,6 @@
     <t>Configurable por hoja de coordenadas</t>
   </si>
   <si>
-    <t>Configuración intuitiva de dispositivos</t>
-  </si>
-  <si>
     <t>Uso de la pantalla en prototipo</t>
   </si>
   <si>
@@ -308,10 +269,79 @@
     <t>Hoja de Excel</t>
   </si>
   <si>
-    <t>Lanzar mosquitto</t>
-  </si>
-  <si>
     <t>El sensor óptico no detecta este tipo de situaciones</t>
+  </si>
+  <si>
+    <t>Led indicador e alarma sonora</t>
+  </si>
+  <si>
+    <t>Sin incluir batéría se cumple</t>
+  </si>
+  <si>
+    <t>Configurable</t>
+  </si>
+  <si>
+    <t>Informar a la organización sobre si ha incumplido durante el desarrollo del sector ciclista y los casos</t>
+  </si>
+  <si>
+    <t>Colocación con bridas.</t>
+  </si>
+  <si>
+    <t>Aplicación organización</t>
+  </si>
+  <si>
+    <t>Configuración mediante ficheros de configuración</t>
+  </si>
+  <si>
+    <t>Uso simple pero tras instalación de utilidades</t>
+  </si>
+  <si>
+    <t>Script loadCongif.sh</t>
+  </si>
+  <si>
+    <t>Imagen guardada en local</t>
+  </si>
+  <si>
+    <t>Sensor óptico</t>
+  </si>
+  <si>
+    <t>WiFi+Mosquitto</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Configuración detector simple</t>
+  </si>
+  <si>
+    <t>La duración de la batería del dispositivo será como mínimo de 6h, 180km a 30km/h.</t>
+  </si>
+  <si>
+    <t>Integración en  bicleta tipo contrarreloj con impacto aerodinámico sea leve</t>
+  </si>
+  <si>
+    <t>La configuración del servidorno requerirá de conocimientos informáticos específicos.</t>
+  </si>
+  <si>
+    <t>Método de seguridad para evitar que un usuario externo suplante a los dispositivos</t>
+  </si>
+  <si>
+    <t>Reconocer drafting bajo condiciones de viento lateral con abanicos.</t>
+  </si>
+  <si>
+    <t>Cconfigurar el dispositivo de forma que no sea neceario tocar código fuente</t>
+  </si>
+  <si>
+    <t>Comunicar con la aplicación de la organización de manera inalámbrica</t>
+  </si>
+  <si>
+    <t>No tomar adelantamientos como infracciones.</t>
+  </si>
+  <si>
+    <t>No reconocer infracciones en zona de transición</t>
+  </si>
+  <si>
+    <t>El detector pordrá interpretar en que sentido se circula en las áreas seguras</t>
   </si>
 </sst>
 </file>
@@ -414,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -443,6 +473,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,29 +788,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF01E1-07C3-41E6-AAF1-77804EE075B6}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="82.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="1"/>
-    <col min="6" max="6" width="12.33203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="43" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="3.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="10" customWidth="1"/>
+    <col min="7" max="7" width="46.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
@@ -795,9 +826,9 @@
       <c r="G1" s="17"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>4</v>
@@ -812,495 +843,526 @@
         <v>0</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F6" s="10">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F12" s="10">
         <v>-1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F13" s="10">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F14" s="10">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="F15" s="10">
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F16" s="10">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F17" s="10">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F18" s="10">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F19" s="10">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F21" s="14">
         <v>0</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F22" s="10">
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F23" s="10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F24" s="10">
         <v>0</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F25" s="10">
         <v>-1</v>
